--- a/SPP_R_SB.xlsx
+++ b/SPP_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,132 +436,1052 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Instance</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Clauses</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Runtime</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Optimal_Height</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Instance</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HT01(c1p1)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1136</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>20626</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
       <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>7.014585180033464</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HT02(c1p2)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1241</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>23384</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.199810189020354</v>
-      </c>
       <c r="D3" t="n">
+        <v>1.287245055951644</v>
+      </c>
+      <c r="E3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HT03(c1p3)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1136</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>20612</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.343061999999918</v>
-      </c>
       <c r="D4" t="n">
+        <v>0.3530025989748538</v>
+      </c>
+      <c r="E4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HT04(c2p1)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2600</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>69521</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
       <c r="D5" t="n">
+        <v>55.7901100940071</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C6" t="n">
+        <v>69014</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.177583996031899</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69013</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.240836434008088</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C8" t="n">
+        <v>141858</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>151256</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C10" t="n">
+        <v>141230</v>
+      </c>
+      <c r="D10" t="n">
+        <v>785.3696373689454</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>992</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19268</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.76487842499046</v>
+      </c>
+      <c r="E11" t="n">
         <v>16</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HT04(c2p1)</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4485</v>
+      </c>
+      <c r="C12" t="n">
+        <v>158452</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>112</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86180</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9553060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1342</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C14" t="n">
+        <v>180568</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.07657775201369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>696</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>28500</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1086782</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3469570</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>185900</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17762810</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3369</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>480</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5872</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22.05273580097128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22852</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5469267090084031</v>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33864</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6834302379866131</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>273</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2764</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01755622099153697</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>924</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17552</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5229832089971751</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>960</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15923</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4522333390195854</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>352</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3725</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05320974998176098</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17602</v>
+      </c>
+      <c r="D25" t="n">
+        <v>364.777855488006</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45028</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.114495037996676</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29742</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.9079358849558</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36730</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>51</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C29" t="n">
+        <v>104160</v>
+      </c>
+      <c r="D29" t="n">
+        <v>460.3341256949934</v>
+      </c>
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C30" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.062873196962755</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6440</v>
+      </c>
+      <c r="C31" t="n">
+        <v>265688</v>
+      </c>
+      <c r="D31" t="n">
+        <v>741.6576900910004</v>
+      </c>
+      <c r="E31" t="n">
+        <v>57</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13680</v>
+      </c>
+      <c r="C32" t="n">
+        <v>794474</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>86</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23360</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1729668</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>110</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>35900</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3242928</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>138</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>245804</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.86291903600795</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>21280</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1390092</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>69</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4199682</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>108</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>78240</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8799094</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>135</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>124200</v>
+      </c>
+      <c r="C39" t="n">
+        <v>17923726</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>182</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10682</v>
+      </c>
+      <c r="C40" t="n">
+        <v>582461</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>64</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10633</v>
+      </c>
+      <c r="C41" t="n">
+        <v>577138</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10633</v>
+      </c>
+      <c r="C42" t="n">
+        <v>576616</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>61</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>

--- a/SPP_R_SB.xlsx
+++ b/SPP_R_SB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1136</v>
+        <v>1024</v>
       </c>
       <c r="C2" t="n">
-        <v>20626</v>
+        <v>17544</v>
       </c>
       <c r="D2" t="n">
-        <v>7.014585180033464</v>
+        <v>0.3369133739906829</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1241</v>
+        <v>4094</v>
       </c>
       <c r="C3" t="n">
-        <v>23384</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.287245055951644</v>
+        <v>142273</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1136</v>
+        <v>53940</v>
       </c>
       <c r="C4" t="n">
-        <v>20612</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3530025989748538</v>
+        <v>5732300</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2600</v>
+        <v>1024</v>
       </c>
       <c r="C5" t="n">
-        <v>69521</v>
+        <v>17544</v>
       </c>
       <c r="D5" t="n">
-        <v>55.7901100940071</v>
+        <v>0.3271094949741382</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,62 +568,66 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2600</v>
+        <v>4094</v>
       </c>
       <c r="C6" t="n">
-        <v>69014</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.177583996031899</v>
+        <v>142273</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2600</v>
+        <v>53940</v>
       </c>
       <c r="C7" t="n">
-        <v>69013</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.240836434008088</v>
+        <v>5732300</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4060</v>
+        <v>175950</v>
       </c>
       <c r="C8" t="n">
-        <v>141858</v>
+        <v>16790444</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -627,7 +635,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>3170</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -638,46 +646,44 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4263</v>
+        <v>490</v>
       </c>
       <c r="C9" t="n">
-        <v>151256</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>6062</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.24498541301</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4060</v>
+        <v>1207</v>
       </c>
       <c r="C10" t="n">
-        <v>141230</v>
+        <v>23200</v>
       </c>
       <c r="D10" t="n">
-        <v>785.3696373689454</v>
+        <v>0.7059524740034249</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,20 +694,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>992</v>
+        <v>1659</v>
       </c>
       <c r="C11" t="n">
-        <v>19268</v>
+        <v>34212</v>
       </c>
       <c r="D11" t="n">
-        <v>29.76487842499046</v>
+        <v>0.8054616870067548</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,72 +718,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4485</v>
+        <v>287</v>
       </c>
       <c r="C12" t="n">
-        <v>158452</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>3058</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.03918574698036537</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86180</v>
+        <v>1022</v>
       </c>
       <c r="C13" t="n">
-        <v>9553060</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>17992</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2371837919927202</v>
       </c>
       <c r="E13" t="n">
-        <v>1342</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9650</v>
+        <v>1020</v>
       </c>
       <c r="C14" t="n">
-        <v>180568</v>
+        <v>18013</v>
       </c>
       <c r="D14" t="n">
-        <v>13.07657775201369</v>
+        <v>2.368136573000811</v>
       </c>
       <c r="E14" t="n">
-        <v>696</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -788,98 +790,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28500</v>
+        <v>440</v>
       </c>
       <c r="C15" t="n">
-        <v>1086782</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>5600</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1080628019990399</v>
       </c>
       <c r="E15" t="n">
-        <v>1175</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60600</v>
+        <v>1001</v>
       </c>
       <c r="C16" t="n">
-        <v>3469570</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>17602</v>
+      </c>
+      <c r="D16" t="n">
+        <v>556.5147611289867</v>
       </c>
       <c r="E16" t="n">
-        <v>1793</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185900</v>
+        <v>1872</v>
       </c>
       <c r="C17" t="n">
-        <v>17762810</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
+        <v>44628</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.232047682977282</v>
       </c>
       <c r="E17" t="n">
-        <v>3369</v>
+        <v>49</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>480</v>
+        <v>1482</v>
       </c>
       <c r="C18" t="n">
-        <v>5872</v>
+        <v>32227</v>
       </c>
       <c r="D18" t="n">
-        <v>22.05273580097128</v>
+        <v>32.70676960400306</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -890,20 +886,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1207</v>
+        <v>1635</v>
       </c>
       <c r="C19" t="n">
-        <v>22852</v>
+        <v>37750</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5469267090084031</v>
+        <v>815.4296258140239</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -914,20 +910,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1659</v>
+        <v>3300</v>
       </c>
       <c r="C20" t="n">
-        <v>33864</v>
+        <v>103224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6834302379866131</v>
+        <v>636.2572456180351</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -938,20 +934,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>273</v>
+        <v>1880</v>
       </c>
       <c r="C21" t="n">
-        <v>2764</v>
+        <v>44502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01755622099153697</v>
+        <v>1.260124890948646</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -962,20 +958,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924</v>
+        <v>6440</v>
       </c>
       <c r="C22" t="n">
-        <v>17552</v>
+        <v>269168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5229832089971751</v>
+        <v>422.7600633260445</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -986,92 +982,98 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>960</v>
+        <v>13680</v>
       </c>
       <c r="C23" t="n">
-        <v>15923</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.4522333390195854</v>
+        <v>805694</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>352</v>
+        <v>23360</v>
       </c>
       <c r="C24" t="n">
-        <v>3725</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.05320974998176098</v>
+        <v>1734900</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1001</v>
+        <v>35900</v>
       </c>
       <c r="C25" t="n">
-        <v>17602</v>
-      </c>
-      <c r="D25" t="n">
-        <v>364.777855488006</v>
+        <v>3260336</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1872</v>
+        <v>6200</v>
       </c>
       <c r="C26" t="n">
-        <v>45028</v>
+        <v>248024</v>
       </c>
       <c r="D26" t="n">
-        <v>1.114495037996676</v>
+        <v>19.15622625703691</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1082,38 +1084,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1469</v>
+        <v>21280</v>
       </c>
       <c r="C27" t="n">
-        <v>29742</v>
-      </c>
-      <c r="D27" t="n">
-        <v>24.9079358849558</v>
+        <v>1393356</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1635</v>
+        <v>45960</v>
       </c>
       <c r="C28" t="n">
-        <v>36730</v>
+        <v>4213542</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1121,7 +1125,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1132,354 +1136,50 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3300</v>
+        <v>77920</v>
       </c>
       <c r="C29" t="n">
-        <v>104160</v>
-      </c>
-      <c r="D29" t="n">
-        <v>460.3341256949934</v>
+        <v>8721774</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1880</v>
+        <v>120200</v>
       </c>
       <c r="C30" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.062873196962755</v>
+        <v>16365634</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6440</v>
-      </c>
-      <c r="C31" t="n">
-        <v>265688</v>
-      </c>
-      <c r="D31" t="n">
-        <v>741.6576900910004</v>
-      </c>
-      <c r="E31" t="n">
-        <v>57</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>13680</v>
-      </c>
-      <c r="C32" t="n">
-        <v>794474</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>86</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>23360</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1729668</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>110</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>35900</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3242928</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>138</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>6200</v>
-      </c>
-      <c r="C35" t="n">
-        <v>245804</v>
-      </c>
-      <c r="D35" t="n">
-        <v>18.86291903600795</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>21280</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1390092</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>69</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4199682</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>108</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>78240</v>
-      </c>
-      <c r="C38" t="n">
-        <v>8799094</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>135</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>124200</v>
-      </c>
-      <c r="C39" t="n">
-        <v>17923726</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>182</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>10682</v>
-      </c>
-      <c r="C40" t="n">
-        <v>582461</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>64</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>10633</v>
-      </c>
-      <c r="C41" t="n">
-        <v>577138</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>61</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>10633</v>
-      </c>
-      <c r="C42" t="n">
-        <v>576616</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>61</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
